--- a/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.821395506358828</v>
+        <v>-1.824200775185429</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9688924093840782</v>
+        <v>1.218350433358685</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.433326193597024</v>
+        <v>-1.476400836059625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.205822230743019</v>
+        <v>-1.183365173695662</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.53194432149021</v>
+        <v>9.096659045899701</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.108137954735859</v>
+        <v>-0.9881837142491045</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7846004297124634</v>
+        <v>-0.879687109411849</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.194624885118016</v>
+        <v>6.027942678866823</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7667765662171498</v>
+        <v>-0.5916864486704875</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.10488043140364</v>
+        <v>1.888704509770894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.801616307175859</v>
+        <v>5.844516430660959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.811210046088357</v>
+        <v>2.897610770642088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.853591126642329</v>
+        <v>2.63010927113772</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.60361909245524</v>
+        <v>14.69587830194559</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.859930509922411</v>
+        <v>2.980251602016041</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.159559172314755</v>
+        <v>1.872688467360516</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.12527275692719</v>
+        <v>9.994221936864694</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.200349353559387</v>
+        <v>2.203194448524645</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3400428753333566</v>
+        <v>-0.3476333219924622</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2046725097602394</v>
+        <v>0.1881540562161292</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2801219565236109</v>
+        <v>-0.2967857642953523</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1514882213659529</v>
+        <v>-0.1529156487457671</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.11297839779542</v>
+        <v>1.174583877378997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1412037370561804</v>
+        <v>-0.1263212502939317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1235057278505977</v>
+        <v>-0.1352253022649924</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.9585714401277312</v>
+        <v>0.9372919716778612</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1164290414797225</v>
+        <v>-0.1054976497978369</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5749959110935757</v>
+        <v>0.525085267241521</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.614842097988645</v>
+        <v>1.559232242869899</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8702350242637239</v>
+        <v>0.7819039728881555</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4918705521984938</v>
+        <v>0.4431080299227671</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.471393463892195</v>
+        <v>2.509175626859026</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4982991472954227</v>
+        <v>0.5179972687408352</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4237345415983215</v>
+        <v>0.3642400046749756</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.969218164598576</v>
+        <v>1.930928909370414</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4254143082895018</v>
+        <v>0.4163685379963226</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.357670598659009</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7422193397019203</v>
+        <v>0.7422193397019196</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.03673218430791277</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6911762350840566</v>
+        <v>-0.7996510784734491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.663356334114663</v>
+        <v>0.7926113097333506</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.380981864353832</v>
+        <v>0.3452134073298966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.619469808624414</v>
+        <v>-1.599864368937091</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.589785336496339</v>
+        <v>3.718529341427559</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5625141384451257</v>
+        <v>-0.6075907112217859</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7948598575316033</v>
+        <v>-0.8893590643124194</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.541347216949679</v>
+        <v>2.663720070393273</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2395670211594846</v>
+        <v>0.340042910831189</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.163690315211627</v>
+        <v>1.146219342781388</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.877962500078071</v>
+        <v>3.030974925011954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.57448728731136</v>
+        <v>2.535869063022521</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.943257833860989</v>
+        <v>0.9368550195694716</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.920299921021041</v>
+        <v>7.113438187922627</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.907988197899374</v>
+        <v>1.86766577369115</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7548318557640014</v>
+        <v>0.7435943890536213</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.529098361075736</v>
+        <v>4.452454088265211</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.878258839319235</v>
+        <v>1.894633715696615</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>1.464870040393638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2029342517627389</v>
+        <v>0.2029342517627387</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01334827402309892</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3083704201454223</v>
+        <v>-0.3245737720293759</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2706458539215967</v>
+        <v>0.2935503362780413</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1387462541762807</v>
+        <v>0.1097748767839124</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3853019762923487</v>
+        <v>-0.3642240424067004</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8058938111877939</v>
+        <v>0.8259423450312673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1325170464119768</v>
+        <v>-0.1378819063038423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2573455708818581</v>
+        <v>-0.2689263395353539</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8044719039692668</v>
+        <v>0.8208220898228062</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.0756459654288336</v>
+        <v>0.09966499641959585</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8151051215421341</v>
+        <v>0.8156220734127317</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.984925375882895</v>
+        <v>2.154507888378214</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.824565607160963</v>
+        <v>1.718653130496272</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3186952847346086</v>
+        <v>0.3229899272709721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.352845713060169</v>
+        <v>2.400055830277497</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6335219043627625</v>
+        <v>0.6639651352533558</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.325578983462367</v>
+        <v>0.3299987867940251</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.949024648838309</v>
+        <v>1.902465763718792</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8167277991025964</v>
+        <v>0.8144219118295002</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.6735285544250326</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2314102366030329</v>
+        <v>0.2314102366030326</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.605737053812034</v>
@@ -1092,7 +1092,7 @@
         <v>1.798254144271347</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7376747219095446</v>
+        <v>0.7376747219095443</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6334405506275158</v>
+        <v>-0.7014805544898214</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.165634919666248</v>
+        <v>-1.000267726377523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.531000063960087</v>
+        <v>-1.407051865056233</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2991503709525218</v>
+        <v>-0.2785049697658928</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9961121284950772</v>
+        <v>0.8936501596020316</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4812950922258107</v>
+        <v>-0.283977709798544</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03555398468902338</v>
+        <v>0.03361119687860847</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4274726266900508</v>
+        <v>0.3913714131732984</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.471959154734549</v>
+        <v>-0.5204411100304345</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.781860018951005</v>
+        <v>3.768774669954986</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.968959170893385</v>
+        <v>3.074800773979957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.98682599387336</v>
+        <v>2.094136859737818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.003396424391688</v>
+        <v>3.59545895519495</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.197344107855611</v>
+        <v>5.318049280501449</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.787625523817837</v>
+        <v>2.823477418061042</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.163355106375382</v>
+        <v>3.039237647904508</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.399353468679247</v>
+        <v>3.382959856196463</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.897578655542619</v>
+        <v>1.996939096237729</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2878405228023391</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.09889594590758211</v>
+        <v>0.09889594590758195</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.069724426588555</v>
@@ -1197,7 +1197,7 @@
         <v>0.9216568257958722</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.378079452690761</v>
+        <v>0.3780794526907608</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2486531066429557</v>
+        <v>-0.2493648341924007</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3899999241847074</v>
+        <v>-0.3566700694329535</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5064423011251118</v>
+        <v>-0.4671217782480621</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2279707608467442</v>
+        <v>-0.2396127409473721</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2674794913236436</v>
+        <v>0.282721064447667</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2776155831341623</v>
+        <v>-0.2301503589099113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01026007039775386</v>
+        <v>-0.002213843029179114</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1384937872592243</v>
+        <v>0.1289628562322349</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1794945940405861</v>
+        <v>-0.2403656148583293</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.354196951794958</v>
+        <v>2.425215158311713</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.999806348950451</v>
+        <v>2.023821011039998</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.204566529910799</v>
+        <v>1.489638826353472</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.868149395632793</v>
+        <v>4.253934307361224</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.369886603015131</v>
+        <v>7.416309217485828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.700852078493975</v>
+        <v>3.783741148031432</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.18392395944926</v>
+        <v>2.178785720512559</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.277241000310495</v>
+        <v>2.392454157262845</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.471451288538568</v>
+        <v>1.419933725284608</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.760121993248272</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6540116555904572</v>
+        <v>0.6540116555904578</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3228123229032501</v>
@@ -1297,7 +1297,7 @@
         <v>6.41059278243353</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.2171560148968577</v>
+        <v>0.217156014896857</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.3012779210124418</v>
@@ -1306,7 +1306,7 @@
         <v>4.143621036240864</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.4412950740679649</v>
+        <v>0.4412950740679655</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5542283667350137</v>
+        <v>-0.5780805272648798</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9105627688827035</v>
+        <v>0.880416860850735</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2471445730073223</v>
+        <v>-0.240582034181062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7020112945822785</v>
+        <v>-0.6922190406909458</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.085957548252624</v>
+        <v>5.18237735486996</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7373677077251473</v>
+        <v>-0.7199398398675579</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3713773466131856</v>
+        <v>-0.3847836167940074</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.356271025095613</v>
+        <v>3.371285312308831</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2232222603694271</v>
+        <v>-0.162685125896007</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.169265447125537</v>
+        <v>1.077453628075126</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.660963865870343</v>
+        <v>2.690851181803512</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.522484461492324</v>
+        <v>1.493176966699822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.265990665825199</v>
+        <v>1.261077416838113</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.701007602197557</v>
+        <v>7.775316588909964</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.113512270802821</v>
+        <v>1.243407310205878</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9541160220216202</v>
+        <v>0.962396830178373</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.91808839246712</v>
+        <v>4.962115184076806</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.021872979346022</v>
+        <v>1.100490997422677</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.6343161554217441</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2356939806254851</v>
+        <v>0.2356939806254854</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.0703978157102923</v>
@@ -1402,7 +1402,7 @@
         <v>1.398000315578851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04735664667198045</v>
+        <v>0.04735664667198029</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.08155534690090289</v>
@@ -1411,7 +1411,7 @@
         <v>1.121670150606711</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1194577177455571</v>
+        <v>0.1194577177455572</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1750518442571537</v>
+        <v>-0.1856357183950481</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2861173704916062</v>
+        <v>0.2735004678753846</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08141055013126747</v>
+        <v>-0.07988315742380463</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1352849926605277</v>
+        <v>-0.1377713379266104</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9842584793204948</v>
+        <v>1.029491529561363</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1418592208497502</v>
+        <v>-0.140536434975936</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.08934994517463576</v>
+        <v>-0.09651356338911517</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.8357448681656174</v>
+        <v>0.8636527578619608</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05584789497783402</v>
+        <v>-0.04072452456492699</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4769407175875069</v>
+        <v>0.465456869174142</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.161014765230763</v>
+        <v>1.158101661027696</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6179395725523542</v>
+        <v>0.6242429857574625</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3064545193273051</v>
+        <v>0.3169729267076085</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.876021870438588</v>
+        <v>1.921736182744982</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2727805326361331</v>
+        <v>0.304771859548433</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2939200405428089</v>
+        <v>0.2857592495478264</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.448476667579945</v>
+        <v>1.496507362866704</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2996823115790212</v>
+        <v>0.3272442548714131</v>
       </c>
     </row>
     <row r="28">
